--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value648.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value648.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.314970992043768</v>
+        <v>1.194162845611572</v>
       </c>
       <c r="B1">
-        <v>2.261497101266915</v>
+        <v>2.342741012573242</v>
       </c>
       <c r="C1">
-        <v>2.786589589146629</v>
+        <v>3.569624185562134</v>
       </c>
       <c r="D1">
-        <v>3.211945480610175</v>
+        <v>3.229882955551147</v>
       </c>
       <c r="E1">
-        <v>2.106799345060126</v>
+        <v>1.138687133789062</v>
       </c>
     </row>
   </sheetData>
